--- a/melon.xlsx
+++ b/melon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>타이틀</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>가수</t>
         </is>
@@ -461,10 +466,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Good Goodbye </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>화사 (HWASA)</t>
         </is>
@@ -481,10 +491,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t xml:space="preserve">ONE MORE TIME </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>ALLDAY PROJECT</t>
         </is>
@@ -501,10 +516,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t xml:space="preserve">타임캡슐 </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>다비치</t>
         </is>
@@ -521,10 +541,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t xml:space="preserve">Blue Valentine </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>NMIXX</t>
         </is>
@@ -541,10 +566,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t xml:space="preserve">Golden </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>HUNTR/X</t>
         </is>
@@ -561,10 +591,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t xml:space="preserve">SPAGHETTI (feat. j-hope of BTS) </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>LE SSERAFIM (르세라핌)</t>
         </is>
@@ -581,10 +616,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t xml:space="preserve">Drowning </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>WOODZ</t>
         </is>
@@ -601,10 +641,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t xml:space="preserve">첫 눈 </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>EXO</t>
         </is>
@@ -621,10 +666,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t xml:space="preserve">멸종위기사랑 </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>찬혁</t>
         </is>
@@ -641,10 +691,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t xml:space="preserve">달리 표현할 수 없어요 </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>로이킴</t>
         </is>
@@ -661,10 +716,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t xml:space="preserve">어제보다 슬픈 오늘 </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>우디 (Woody)</t>
         </is>
@@ -681,10 +741,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t xml:space="preserve">뛰어(JUMP) </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>BLACKPINK</t>
         </is>
@@ -701,10 +766,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t xml:space="preserve">FAMOUS </t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>ALLDAY PROJECT</t>
         </is>
@@ -721,10 +791,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t xml:space="preserve">모르시나요(PROD.로코베리) </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>조째즈</t>
         </is>
@@ -741,10 +816,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t xml:space="preserve">사랑하게 될 거야 </t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>한로로</t>
         </is>
@@ -761,12 +841,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">toxic till the end </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t xml:space="preserve">힙합보단 사랑, 사랑보단 돈 (Feat. 베이식) </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>노아주다 (noahjooda)</t>
         </is>
       </c>
     </row>
@@ -781,12 +866,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">시작의 아이 ❍ </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>박다혜</t>
+          <t xml:space="preserve">Soda Pop </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KPop Demon Hunters Cast</t>
         </is>
       </c>
     </row>
@@ -801,12 +891,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soda Pop </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>KPop Demon Hunters Cast</t>
+          <t xml:space="preserve">toxic till the end </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -821,12 +916,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">HOME SWEET HOME (feat. 태양, 대성) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t xml:space="preserve">시작의 아이 ❍ </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>박다혜</t>
         </is>
       </c>
     </row>
@@ -841,12 +941,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">한번 더 이별 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>창섭</t>
+          <t xml:space="preserve">HOME SWEET HOME (feat. 태양, 대성) </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -861,12 +966,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">힙합보단 사랑, 사랑보단 돈 (Feat. 베이식) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>노아주다 (noahjooda)</t>
+          <t xml:space="preserve">한번 더 이별 </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>창섭</t>
         </is>
       </c>
     </row>
@@ -881,12 +991,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">어떻게 이별까지 사랑하겠어, 널 사랑하는 거지 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t xml:space="preserve">내게 사랑이 뭐냐고 물어본다면 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -901,12 +1016,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">내게 사랑이 뭐냐고 물어본다면 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t xml:space="preserve">어떻게 이별까지 사랑하겠어, 널 사랑하는 거지 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -921,10 +1041,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t xml:space="preserve">너에게 닿기를 </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>10CM</t>
         </is>
@@ -941,12 +1066,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">천상연 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>창섭</t>
+          <t xml:space="preserve">XOXZ </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -961,12 +1091,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">XOXZ </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t xml:space="preserve">천상연 </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>창섭</t>
         </is>
       </c>
     </row>
@@ -981,10 +1116,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t xml:space="preserve">IRIS OUT </t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Kenshi Yonezu</t>
         </is>
@@ -1001,10 +1141,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t xml:space="preserve">Rich Man </t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>aespa</t>
         </is>
@@ -1021,10 +1166,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t xml:space="preserve">너의 모든 순간 </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>성시경</t>
         </is>
@@ -1041,12 +1191,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Whiplash </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t xml:space="preserve">사랑은 늘 도망가 </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1216,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">운명 (2025) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>먼데이 키즈</t>
+          <t xml:space="preserve">Hollywood Action </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1241,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">나는 반딧불 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t xml:space="preserve">운명 (2025) </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>먼데이 키즈</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1266,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hollywood Action </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t xml:space="preserve">Whiplash </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1291,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">사랑은 늘 도망가 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t xml:space="preserve">나는 반딧불 </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1316,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">청춘만화 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>무진</t>
+          <t xml:space="preserve">하얀 그리움 </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1341,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">오늘만 I LOVE YOU </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t xml:space="preserve">청춘만화 </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>무진</t>
         </is>
       </c>
     </row>
@@ -1181,10 +1366,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t xml:space="preserve">소나기 </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>클립스 (ECLIPSE)</t>
         </is>
@@ -1201,12 +1391,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">like JENNIE </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t xml:space="preserve">시작의 아이 </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>마크툽 (MAKTUB)</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1416,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">시작의 아이 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>마크툽 (MAKTUB)</t>
+          <t xml:space="preserve">오늘만 I LOVE YOU </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1441,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAPPY </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t xml:space="preserve">모든 날, 모든 순간 (Every day, Every Moment) </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1466,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">모든 날, 모든 순간 (Every day, Every Moment) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t xml:space="preserve">HAPPY </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1491,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOCUS </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t xml:space="preserve">like JENNIE </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1516,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Never Ending Story </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t xml:space="preserve">순간을 영원처럼 </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1541,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection)) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t xml:space="preserve">FOCUS </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1566,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">APT. </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t xml:space="preserve">NOT CUTE ANYMORE </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1591,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flower </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>오반(OVAN)</t>
+          <t xml:space="preserve">body </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>다영 (DAYOUNG)</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1616,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">LOOK AT ME </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t xml:space="preserve">그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection)) </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1641,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Die With A Smile </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lady Gaga</t>
+          <t xml:space="preserve">APT. </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1666,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">body </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>다영 (DAYOUNG)</t>
+          <t xml:space="preserve">LOOK AT ME </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1691,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">순간을 영원처럼 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t xml:space="preserve">Never Ending Story </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>아이유</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1716,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">한 페이지가 될 수 있게 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t xml:space="preserve">Flower </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>오반(OVAN)</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1741,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">하얀 그리움 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t xml:space="preserve">가만히 눈을 감고 </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>DK(디셈버)</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1766,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">가만히 눈을 감고 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DK(디셈버)</t>
+          <t xml:space="preserve">한 페이지가 될 수 있게 </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1791,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">REBEL HEART </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t xml:space="preserve">Die With A Smile </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Lady Gaga</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1816,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">예뻤어 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t xml:space="preserve">All I Want for Christmas Is You </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Mariah Carey</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1841,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Love wins all </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t xml:space="preserve">REBEL HEART </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1866,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">NOT CUTE ANYMORE </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t xml:space="preserve">우리들의 블루스 </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1601,10 +1891,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome to the Show </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">예뻤어 </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>DAY6 (데이식스)</t>
         </is>
@@ -1621,12 +1916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dirty Work </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t xml:space="preserve">Love wins all </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>아이유</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1941,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOO BAD (feat. Anderson .Paak) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t xml:space="preserve">청혼하지 않을 이유를 못 찾았어 </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>무진</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1966,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">All I Want for Christmas Is You </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t xml:space="preserve">Welcome to the Show </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1991,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">주저하는 연인들을 위해 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t xml:space="preserve">나였으면 </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>나윤권</t>
         </is>
       </c>
     </row>
@@ -1701,12 +2016,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">청혼하지 않을 이유를 못 찾았어 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>무진</t>
+          <t xml:space="preserve">TOO BAD (feat. Anderson .Paak) </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -1721,12 +2041,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">우리들의 블루스 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t xml:space="preserve">그래 늦지 않았어 (2025) </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>아샤트리</t>
         </is>
       </c>
     </row>
@@ -1741,12 +2066,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">나였으면 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>나윤권</t>
+          <t xml:space="preserve">Dirty Work </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1761,10 +2091,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t xml:space="preserve">다정히 내 이름을 부르면 </t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>경서예</t>
         </is>
@@ -1781,12 +2116,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">WICKED </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t xml:space="preserve">주저하는 연인들을 위해 </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -1801,12 +2141,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">STYLE </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t xml:space="preserve">인사 </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>범진</t>
         </is>
       </c>
     </row>
@@ -1821,12 +2166,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">인사 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t xml:space="preserve">들꽃이 될게요 </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1841,12 +2191,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">첫 만남은 계획대로 되지 않아 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t xml:space="preserve">WICKED </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2216,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">그래 늦지 않았어 (2025) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>아샤트리</t>
+          <t xml:space="preserve">다시 만날 수 있을까 </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1881,12 +2241,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">빌려온 고양이 (Do the Dance) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t xml:space="preserve">STYLE </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
     </row>
@@ -1901,10 +2266,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t xml:space="preserve">사랑인가 봐 </t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>멜로망스</t>
         </is>
@@ -1921,12 +2291,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">헤어지자 말해요 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t xml:space="preserve">첫 만남은 계획대로 되지 않아 </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -1941,12 +2316,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">MY LOVE(2025) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>예은</t>
+          <t xml:space="preserve">헤어지자 말해요 </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2341,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">다시 만날 수 있을까 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t xml:space="preserve">빌려온 고양이 (Do the Dance) </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1981,12 +2366,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">에피소드 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>무진</t>
+          <t xml:space="preserve">그댈 위한 멜로디 </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2391,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnetic </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t xml:space="preserve">BBUU! </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2416,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">0+0 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t xml:space="preserve">MY LOVE(2025) </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>예은</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2441,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">BBUU! </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t xml:space="preserve">OVERDRIVE </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2466,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supernova </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t xml:space="preserve">에피소드 </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>무진</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2491,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">OVERDRIVE </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t xml:space="preserve">0+0 </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>한로로</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2516,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">슬픈 초대장 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>순순희(지환)</t>
+          <t xml:space="preserve">Magnetic </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2541,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">비의 랩소디 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t xml:space="preserve">Supernova </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2566,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">들꽃이 될게요 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t xml:space="preserve">Dash </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2591,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">눈이 오잖아(Feat.헤이즈) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>무진</t>
+          <t xml:space="preserve">Seven (feat. Latto) - Clean Ver. </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2616,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">I AM </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t xml:space="preserve">비의 랩소디 </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2641,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fame </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t xml:space="preserve">비가 와서 </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2666,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">눈사람 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>정승환</t>
+          <t xml:space="preserve">Fame </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2691,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dash </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t xml:space="preserve">슬픈 초대장 </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>순순희(지환)</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2716,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seven (feat. Latto) - Clean Ver. </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t xml:space="preserve">I AM </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2741,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">그댈 위한 멜로디 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t xml:space="preserve">눈사람 </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>정승환</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2766,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">고민중독 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t xml:space="preserve">눈이 오잖아(Feat.헤이즈) </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>무진</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2791,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">DRIP </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t xml:space="preserve">Zoo (From "Zootopia 2"/Soundtrack Version) </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Disney</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2816,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hype Boy </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t xml:space="preserve">고민중독 </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2841,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your Idol </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>KPop Demon Hunters Cast</t>
+          <t xml:space="preserve">DRIP </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>BABYMONSTER</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2866,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zoo (From "Zootopia 2"/Soundtrack Version) </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t xml:space="preserve">Hype Boy </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -2401,10 +2891,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">비가 와서 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">천국보다 아름다운 </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>임영웅</t>
         </is>
@@ -2421,12 +2916,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Santa Tell Me </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t xml:space="preserve">Your Idol </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>KPop Demon Hunters Cast</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2941,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">천국보다 아름다운 </t>
+          <t>멜론</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t xml:space="preserve">Santa Tell Me </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Ariana Grande</t>
         </is>
       </c>
     </row>
